--- a/Job Application Web App/info.xlsx
+++ b/Job Application Web App/info.xlsx
@@ -463,27 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mohid</t>
+          <t>Salman</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Iqbal</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>salmanahmad1279@gmail.com</t>
+          <t>salmanahmad111499@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1998-11-01</t>
+          <t>2024-05-23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>unemployed</t>
+          <t>self-employed</t>
         </is>
       </c>
     </row>
